--- a/helpers/templates/reception/ordn.xlsx
+++ b/helpers/templates/reception/ordn.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\GitHub\alpamed_sap_api\helpers\templates\reception\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C275FC7-D0CA-4228-9776-4A0CC89DED1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1520F5AD-BFE9-4040-A193-6F119E360AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1140" windowWidth="23295" windowHeight="13950"/>
+    <workbookView xWindow="31425" yWindow="1320" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="114210"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>I036789</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -100,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -167,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -248,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -329,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -379,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -427,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -460,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -477,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -494,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -510,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -527,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -543,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -560,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -576,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -592,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -608,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -624,7 +613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -641,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -657,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -673,7 +662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0">
+    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
       <text>
         <r>
           <rPr>
@@ -690,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0">
+    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
       <text>
         <r>
           <rPr>
@@ -707,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0">
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -723,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0">
+    <comment ref="AQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -739,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0">
+    <comment ref="AR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -756,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0">
+    <comment ref="AS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -772,7 +761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0">
+    <comment ref="AT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -789,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0">
+    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -806,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
         <r>
           <rPr>
@@ -822,7 +811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
       <text>
         <r>
           <rPr>
@@ -839,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
       <text>
         <r>
           <rPr>
@@ -856,7 +845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
       <text>
         <r>
           <rPr>
@@ -873,7 +862,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
       <text>
         <r>
           <rPr>
@@ -889,7 +878,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BA1" authorId="0" shapeId="0">
+    <comment ref="BA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
       <text>
         <r>
           <rPr>
@@ -905,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BB1" authorId="0" shapeId="0">
+    <comment ref="BB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
       <text>
         <r>
           <rPr>
@@ -921,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BC1" authorId="0" shapeId="0">
+    <comment ref="BC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000037000000}">
       <text>
         <r>
           <rPr>
@@ -937,7 +926,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD1" authorId="0" shapeId="0">
+    <comment ref="BD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000038000000}">
       <text>
         <r>
           <rPr>
@@ -953,7 +942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BE1" authorId="0" shapeId="0">
+    <comment ref="BE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000039000000}">
       <text>
         <r>
           <rPr>
@@ -969,7 +958,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0" shapeId="0">
+    <comment ref="BF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003A000000}">
       <text>
         <r>
           <rPr>
@@ -986,7 +975,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BG1" authorId="0" shapeId="0">
+    <comment ref="BG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003B000000}">
       <text>
         <r>
           <rPr>
@@ -1002,7 +991,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BH1" authorId="0" shapeId="0">
+    <comment ref="BH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003C000000}">
       <text>
         <r>
           <rPr>
@@ -1018,7 +1007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0">
+    <comment ref="BI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003D000000}">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0">
+    <comment ref="BJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003E000000}">
       <text>
         <r>
           <rPr>
@@ -1052,7 +1041,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0">
+    <comment ref="BK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00003F000000}">
       <text>
         <r>
           <rPr>
@@ -1068,7 +1057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0" shapeId="0">
+    <comment ref="BL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000040000000}">
       <text>
         <r>
           <rPr>
@@ -1084,7 +1073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0">
+    <comment ref="BM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000041000000}">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0" shapeId="0">
+    <comment ref="BN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000042000000}">
       <text>
         <r>
           <rPr>
@@ -1117,7 +1106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO1" authorId="0" shapeId="0">
+    <comment ref="BO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000043000000}">
       <text>
         <r>
           <rPr>
@@ -1134,7 +1123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP1" authorId="0" shapeId="0">
+    <comment ref="BP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000044000000}">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0">
+    <comment ref="BQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000045000000}">
       <text>
         <r>
           <rPr>
@@ -1166,7 +1155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR1" authorId="0" shapeId="0">
+    <comment ref="BR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000046000000}">
       <text>
         <r>
           <rPr>
@@ -1182,7 +1171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS1" authorId="0" shapeId="0">
+    <comment ref="BS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000047000000}">
       <text>
         <r>
           <rPr>
@@ -1198,7 +1187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BT1" authorId="0" shapeId="0">
+    <comment ref="BT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000048000000}">
       <text>
         <r>
           <rPr>
@@ -1214,7 +1203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BU1" authorId="0" shapeId="0">
+    <comment ref="BU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000049000000}">
       <text>
         <r>
           <rPr>
@@ -1231,7 +1220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BV1" authorId="0" shapeId="0">
+    <comment ref="BV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004A000000}">
       <text>
         <r>
           <rPr>
@@ -1247,7 +1236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BW1" authorId="0" shapeId="0">
+    <comment ref="BW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004B000000}">
       <text>
         <r>
           <rPr>
@@ -1263,7 +1252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BX1" authorId="0" shapeId="0">
+    <comment ref="BX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004C000000}">
       <text>
         <r>
           <rPr>
@@ -1279,7 +1268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BY1" authorId="0" shapeId="0">
+    <comment ref="BY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004D000000}">
       <text>
         <r>
           <rPr>
@@ -1295,7 +1284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ1" authorId="0" shapeId="0">
+    <comment ref="BZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004E000000}">
       <text>
         <r>
           <rPr>
@@ -1311,7 +1300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA1" authorId="0" shapeId="0">
+    <comment ref="CA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00004F000000}">
       <text>
         <r>
           <rPr>
@@ -1327,7 +1316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB1" authorId="0" shapeId="0">
+    <comment ref="CB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000050000000}">
       <text>
         <r>
           <rPr>
@@ -1344,7 +1333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC1" authorId="0" shapeId="0">
+    <comment ref="CC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000051000000}">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CD1" authorId="0" shapeId="0">
+    <comment ref="CD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000052000000}">
       <text>
         <r>
           <rPr>
@@ -1376,7 +1365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CE1" authorId="0" shapeId="0">
+    <comment ref="CE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000053000000}">
       <text>
         <r>
           <rPr>
@@ -1393,7 +1382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CF1" authorId="0" shapeId="0">
+    <comment ref="CF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000054000000}">
       <text>
         <r>
           <rPr>
@@ -1409,7 +1398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CG1" authorId="0" shapeId="0">
+    <comment ref="CG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000055000000}">
       <text>
         <r>
           <rPr>
@@ -1425,7 +1414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CH1" authorId="0" shapeId="0">
+    <comment ref="CH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000056000000}">
       <text>
         <r>
           <rPr>
@@ -1441,7 +1430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CI1" authorId="0" shapeId="0">
+    <comment ref="CI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000057000000}">
       <text>
         <r>
           <rPr>
@@ -1457,7 +1446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CJ1" authorId="0" shapeId="0">
+    <comment ref="CJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000058000000}">
       <text>
         <r>
           <rPr>
@@ -1473,7 +1462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CK1" authorId="0" shapeId="0">
+    <comment ref="CK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000059000000}">
       <text>
         <r>
           <rPr>
@@ -1489,7 +1478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CL1" authorId="0" shapeId="0">
+    <comment ref="CL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005A000000}">
       <text>
         <r>
           <rPr>
@@ -1505,7 +1494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CM1" authorId="0" shapeId="0">
+    <comment ref="CM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005B000000}">
       <text>
         <r>
           <rPr>
@@ -1521,7 +1510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CN1" authorId="0" shapeId="0">
+    <comment ref="CN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005C000000}">
       <text>
         <r>
           <rPr>
@@ -1537,7 +1526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CO1" authorId="0" shapeId="0">
+    <comment ref="CO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005D000000}">
       <text>
         <r>
           <rPr>
@@ -1553,7 +1542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CP1" authorId="0" shapeId="0">
+    <comment ref="CP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005E000000}">
       <text>
         <r>
           <rPr>
@@ -1569,7 +1558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CQ1" authorId="0" shapeId="0">
+    <comment ref="CQ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00005F000000}">
       <text>
         <r>
           <rPr>
@@ -1585,7 +1574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CR1" authorId="0" shapeId="0">
+    <comment ref="CR1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000060000000}">
       <text>
         <r>
           <rPr>
@@ -1601,7 +1590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CS1" authorId="0" shapeId="0">
+    <comment ref="CS1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000061000000}">
       <text>
         <r>
           <rPr>
@@ -1617,7 +1606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CT1" authorId="0" shapeId="0">
+    <comment ref="CT1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000062000000}">
       <text>
         <r>
           <rPr>
@@ -1633,7 +1622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CU1" authorId="0" shapeId="0">
+    <comment ref="CU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000063000000}">
       <text>
         <r>
           <rPr>
@@ -1649,7 +1638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CV1" authorId="0" shapeId="0">
+    <comment ref="CV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000064000000}">
       <text>
         <r>
           <rPr>
@@ -1666,7 +1655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CW1" authorId="0" shapeId="0">
+    <comment ref="CW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000065000000}">
       <text>
         <r>
           <rPr>
@@ -1682,7 +1671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CX1" authorId="0" shapeId="0">
+    <comment ref="CX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000066000000}">
       <text>
         <r>
           <rPr>
@@ -1698,7 +1687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000067000000}">
       <text>
         <r>
           <rPr>
@@ -1716,7 +1705,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="173">
   <si>
     <t>DocNum</t>
   </si>
@@ -2232,12 +2221,15 @@
   </si>
   <si>
     <t>IgnRelDoc</t>
+  </si>
+  <si>
+    <t>U_ID_WMS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="10"/>
@@ -2627,14 +2619,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" workbookViewId="0">
+      <selection activeCell="CX2" sqref="CX2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:102">
+    <row r="1" spans="1:103">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2941,8 +2935,11 @@
       <c r="CX1" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="CY1" s="1" t="s">
+        <v>172</v>
+      </c>
     </row>
-    <row r="2" spans="1:102">
+    <row r="2" spans="1:103">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3248,6 +3245,9 @@
       </c>
       <c r="CX2" s="2" t="s">
         <v>171</v>
+      </c>
+      <c r="CY2" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
